--- a/notes/code_review.xlsx
+++ b/notes/code_review.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="32">
   <si>
     <t xml:space="preserve">NOM</t>
   </si>
@@ -342,14 +342,14 @@
   <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="S1" activeCellId="0" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.43"/>
@@ -440,6 +440,10 @@
       <c r="R2" s="11"/>
       <c r="T2" s="12" t="s">
         <v>18</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <f aca="false">SUM(U3:U13)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,7 +2593,7 @@
       <selection pane="bottomRight" activeCell="S1" activeCellId="0" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.43"/>
@@ -2714,8 +2718,13 @@
         <f aca="false">CodeReview!R2</f>
         <v>0</v>
       </c>
-      <c r="T2" s="12" t="s">
-        <v>18</v>
+      <c r="T2" s="12" t="str">
+        <f aca="false">CodeReview!T2</f>
+        <v>Notation</v>
+      </c>
+      <c r="U2" s="12" t="n">
+        <f aca="false">CodeReview!U2</f>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2778,14 +2787,17 @@
         <f aca="false">CodeReview!R3</f>
         <v>1</v>
       </c>
-      <c r="T3" s="12" t="s">
-        <v>5</v>
+      <c r="T3" s="12" t="str">
+        <f aca="false">CodeReview!T3</f>
+        <v>Rendu</v>
       </c>
       <c r="U3" s="12" t="n">
+        <f aca="false">CodeReview!U3</f>
         <v>0.5</v>
       </c>
-      <c r="V3" s="12" t="s">
-        <v>23</v>
+      <c r="V3" s="12" t="str">
+        <f aca="false">CodeReview!V3</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2849,14 +2861,17 @@
         <f aca="false">CodeReview!R4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="12" t="s">
-        <v>7</v>
+      <c r="T4" s="12" t="str">
+        <f aca="false">CodeReview!T4</f>
+        <v>Tarball</v>
       </c>
       <c r="U4" s="12" t="n">
+        <f aca="false">CodeReview!U4</f>
         <v>0.5</v>
       </c>
-      <c r="V4" s="12" t="s">
-        <v>23</v>
+      <c r="V4" s="12" t="str">
+        <f aca="false">CodeReview!V4</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2920,14 +2935,17 @@
         <f aca="false">CodeReview!R5</f>
         <v>0</v>
       </c>
-      <c r="T5" s="12" t="s">
-        <v>8</v>
+      <c r="T5" s="12" t="str">
+        <f aca="false">CodeReview!T5</f>
+        <v>Dossier</v>
       </c>
       <c r="U5" s="12" t="n">
+        <f aca="false">CodeReview!U5</f>
         <v>0.5</v>
       </c>
-      <c r="V5" s="12" t="s">
-        <v>23</v>
+      <c r="V5" s="12" t="str">
+        <f aca="false">CodeReview!V5</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2991,14 +3009,17 @@
         <f aca="false">CodeReview!R6</f>
         <v>0</v>
       </c>
-      <c r="T6" s="12" t="s">
-        <v>10</v>
+      <c r="T6" s="12" t="str">
+        <f aca="false">CodeReview!T6</f>
+        <v>Compilation</v>
       </c>
       <c r="U6" s="12" t="n">
+        <f aca="false">CodeReview!U6</f>
         <v>0.5</v>
       </c>
-      <c r="V6" s="12" t="s">
-        <v>23</v>
+      <c r="V6" s="12" t="str">
+        <f aca="false">CodeReview!V6</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,14 +3083,17 @@
         <f aca="false">CodeReview!R7</f>
         <v>0</v>
       </c>
-      <c r="T7" s="12" t="s">
-        <v>12</v>
+      <c r="T7" s="12" t="str">
+        <f aca="false">CodeReview!T7</f>
+        <v>Libs</v>
       </c>
       <c r="U7" s="12" t="n">
+        <f aca="false">CodeReview!U7</f>
         <v>1</v>
       </c>
-      <c r="V7" s="12" t="s">
-        <v>23</v>
+      <c r="V7" s="12" t="str">
+        <f aca="false">CodeReview!V7</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3133,14 +3157,17 @@
         <f aca="false">CodeReview!R8</f>
         <v>0</v>
       </c>
-      <c r="T8" s="12" t="s">
-        <v>9</v>
+      <c r="T8" s="12" t="str">
+        <f aca="false">CodeReview!T8</f>
+        <v>Makefile</v>
       </c>
       <c r="U8" s="12" t="n">
+        <f aca="false">CodeReview!U8</f>
         <v>1</v>
       </c>
-      <c r="V8" s="12" t="s">
-        <v>23</v>
+      <c r="V8" s="12" t="str">
+        <f aca="false">CodeReview!V8</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3204,14 +3231,17 @@
         <f aca="false">CodeReview!R9</f>
         <v>0</v>
       </c>
-      <c r="T9" s="12" t="s">
-        <v>11</v>
+      <c r="T9" s="12" t="str">
+        <f aca="false">CodeReview!T9</f>
+        <v>Check</v>
       </c>
       <c r="U9" s="12" t="n">
+        <f aca="false">CodeReview!U9</f>
         <v>6</v>
       </c>
-      <c r="V9" s="12" t="s">
-        <v>23</v>
+      <c r="V9" s="12" t="str">
+        <f aca="false">CodeReview!V9</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3275,14 +3305,17 @@
         <f aca="false">CodeReview!R10</f>
         <v>0</v>
       </c>
-      <c r="T10" s="12" t="s">
-        <v>13</v>
+      <c r="T10" s="12" t="str">
+        <f aca="false">CodeReview!T10</f>
+        <v>bt_basics.c 1</v>
       </c>
       <c r="U10" s="12" t="n">
+        <f aca="false">CodeReview!U10</f>
         <v>2</v>
       </c>
-      <c r="V10" s="12" t="s">
-        <v>23</v>
+      <c r="V10" s="12" t="str">
+        <f aca="false">CodeReview!V10</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3346,14 +3379,17 @@
         <f aca="false">CodeReview!R11</f>
         <v>0</v>
       </c>
-      <c r="T11" s="12" t="s">
-        <v>14</v>
+      <c r="T11" s="12" t="str">
+        <f aca="false">CodeReview!T11</f>
+        <v>bt_basics.c 2</v>
       </c>
       <c r="U11" s="12" t="n">
+        <f aca="false">CodeReview!U11</f>
         <v>3</v>
       </c>
-      <c r="V11" s="12" t="s">
-        <v>23</v>
+      <c r="V11" s="12" t="str">
+        <f aca="false">CodeReview!V11</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,14 +3453,17 @@
         <f aca="false">CodeReview!R12</f>
         <v>0</v>
       </c>
-      <c r="T12" s="12" t="s">
-        <v>15</v>
+      <c r="T12" s="12" t="str">
+        <f aca="false">CodeReview!T12</f>
+        <v>bt_bst.c 1</v>
       </c>
       <c r="U12" s="12" t="n">
+        <f aca="false">CodeReview!U12</f>
         <v>2</v>
       </c>
-      <c r="V12" s="12" t="s">
-        <v>23</v>
+      <c r="V12" s="12" t="str">
+        <f aca="false">CodeReview!V12</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3488,14 +3527,17 @@
         <f aca="false">CodeReview!R13</f>
         <v>0</v>
       </c>
-      <c r="T13" s="12" t="s">
-        <v>16</v>
+      <c r="T13" s="12" t="str">
+        <f aca="false">CodeReview!T13</f>
+        <v>bt_bst.c 2</v>
       </c>
       <c r="U13" s="12" t="n">
+        <f aca="false">CodeReview!U13</f>
         <v>3</v>
       </c>
-      <c r="V13" s="12" t="s">
-        <v>23</v>
+      <c r="V13" s="12" t="str">
+        <f aca="false">CodeReview!V13</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3560,6 +3602,8 @@
         <v>0</v>
       </c>
       <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="n">
@@ -3623,6 +3667,8 @@
         <v>0</v>
       </c>
       <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="n">
@@ -3685,9 +3731,12 @@
         <f aca="false">CodeReview!R16</f>
         <v>0</v>
       </c>
-      <c r="T16" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="T16" s="12" t="str">
+        <f aca="false">CodeReview!T16</f>
+        <v>Malus</v>
+      </c>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="n">
@@ -3750,14 +3799,17 @@
         <f aca="false">CodeReview!R17</f>
         <v>0</v>
       </c>
-      <c r="T17" s="12" t="s">
-        <v>25</v>
+      <c r="T17" s="12" t="str">
+        <f aca="false">CodeReview!T17</f>
+        <v>Archive sale</v>
       </c>
       <c r="U17" s="12" t="n">
+        <f aca="false">CodeReview!U17</f>
         <v>-1</v>
       </c>
-      <c r="V17" s="12" t="s">
-        <v>23</v>
+      <c r="V17" s="12" t="str">
+        <f aca="false">CodeReview!V17</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3821,14 +3873,17 @@
         <f aca="false">CodeReview!R18</f>
         <v>0</v>
       </c>
-      <c r="T18" s="12" t="s">
-        <v>26</v>
+      <c r="T18" s="12" t="str">
+        <f aca="false">CodeReview!T18</f>
+        <v>Manque fonction</v>
       </c>
       <c r="U18" s="12" t="n">
+        <f aca="false">CodeReview!U18</f>
         <v>-2</v>
       </c>
-      <c r="V18" s="12" t="s">
-        <v>23</v>
+      <c r="V18" s="12" t="str">
+        <f aca="false">CodeReview!V18</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7574,10 +7629,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R8" activeCellId="0" sqref="R8"/>
+      <selection pane="bottomRight" activeCell="S1" activeCellId="0" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.43"/>
@@ -7702,8 +7757,13 @@
         <f aca="false">CodeReview_clean!R2</f>
         <v>0</v>
       </c>
-      <c r="T2" s="12" t="s">
-        <v>18</v>
+      <c r="T2" s="12" t="str">
+        <f aca="false">CodeReview!T2</f>
+        <v>Notation</v>
+      </c>
+      <c r="U2" s="12" t="n">
+        <f aca="false">CodeReview!U2</f>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7766,14 +7826,17 @@
         <f aca="false">CodeReview_clean!R3</f>
         <v>1</v>
       </c>
-      <c r="T3" s="12" t="s">
-        <v>5</v>
+      <c r="T3" s="12" t="str">
+        <f aca="false">CodeReview!T3</f>
+        <v>Rendu</v>
       </c>
       <c r="U3" s="12" t="n">
+        <f aca="false">CodeReview!U3</f>
         <v>0.5</v>
       </c>
-      <c r="V3" s="12" t="s">
-        <v>23</v>
+      <c r="V3" s="12" t="str">
+        <f aca="false">CodeReview!V3</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7837,14 +7900,17 @@
         <f aca="false">CodeReview_clean!R4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="12" t="s">
-        <v>7</v>
+      <c r="T4" s="12" t="str">
+        <f aca="false">CodeReview!T4</f>
+        <v>Tarball</v>
       </c>
       <c r="U4" s="12" t="n">
+        <f aca="false">CodeReview!U4</f>
         <v>0.5</v>
       </c>
-      <c r="V4" s="12" t="s">
-        <v>23</v>
+      <c r="V4" s="12" t="str">
+        <f aca="false">CodeReview!V4</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7908,14 +7974,17 @@
         <f aca="false">CodeReview_clean!R5</f>
         <v>0</v>
       </c>
-      <c r="T5" s="12" t="s">
-        <v>8</v>
+      <c r="T5" s="12" t="str">
+        <f aca="false">CodeReview!T5</f>
+        <v>Dossier</v>
       </c>
       <c r="U5" s="12" t="n">
+        <f aca="false">CodeReview!U5</f>
         <v>0.5</v>
       </c>
-      <c r="V5" s="12" t="s">
-        <v>23</v>
+      <c r="V5" s="12" t="str">
+        <f aca="false">CodeReview!V5</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7979,14 +8048,17 @@
         <f aca="false">CodeReview_clean!R6</f>
         <v>0</v>
       </c>
-      <c r="T6" s="12" t="s">
-        <v>10</v>
+      <c r="T6" s="12" t="str">
+        <f aca="false">CodeReview!T6</f>
+        <v>Compilation</v>
       </c>
       <c r="U6" s="12" t="n">
+        <f aca="false">CodeReview!U6</f>
         <v>0.5</v>
       </c>
-      <c r="V6" s="12" t="s">
-        <v>23</v>
+      <c r="V6" s="12" t="str">
+        <f aca="false">CodeReview!V6</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8050,14 +8122,17 @@
         <f aca="false">CodeReview_clean!R7</f>
         <v>0</v>
       </c>
-      <c r="T7" s="12" t="s">
-        <v>12</v>
+      <c r="T7" s="12" t="str">
+        <f aca="false">CodeReview!T7</f>
+        <v>Libs</v>
       </c>
       <c r="U7" s="12" t="n">
+        <f aca="false">CodeReview!U7</f>
         <v>1</v>
       </c>
-      <c r="V7" s="12" t="s">
-        <v>23</v>
+      <c r="V7" s="12" t="str">
+        <f aca="false">CodeReview!V7</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8121,14 +8196,17 @@
         <f aca="false">CodeReview_clean!R8</f>
         <v>0</v>
       </c>
-      <c r="T8" s="12" t="s">
-        <v>9</v>
+      <c r="T8" s="12" t="str">
+        <f aca="false">CodeReview!T8</f>
+        <v>Makefile</v>
       </c>
       <c r="U8" s="12" t="n">
+        <f aca="false">CodeReview!U8</f>
         <v>1</v>
       </c>
-      <c r="V8" s="12" t="s">
-        <v>23</v>
+      <c r="V8" s="12" t="str">
+        <f aca="false">CodeReview!V8</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8192,14 +8270,17 @@
         <f aca="false">CodeReview_clean!R9</f>
         <v>0</v>
       </c>
-      <c r="T9" s="12" t="s">
-        <v>11</v>
+      <c r="T9" s="12" t="str">
+        <f aca="false">CodeReview!T9</f>
+        <v>Check</v>
       </c>
       <c r="U9" s="12" t="n">
+        <f aca="false">CodeReview!U9</f>
         <v>6</v>
       </c>
-      <c r="V9" s="12" t="s">
-        <v>23</v>
+      <c r="V9" s="12" t="str">
+        <f aca="false">CodeReview!V9</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8263,14 +8344,17 @@
         <f aca="false">CodeReview_clean!R10</f>
         <v>0</v>
       </c>
-      <c r="T10" s="12" t="s">
-        <v>13</v>
+      <c r="T10" s="12" t="str">
+        <f aca="false">CodeReview!T10</f>
+        <v>bt_basics.c 1</v>
       </c>
       <c r="U10" s="12" t="n">
+        <f aca="false">CodeReview!U10</f>
         <v>2</v>
       </c>
-      <c r="V10" s="12" t="s">
-        <v>23</v>
+      <c r="V10" s="12" t="str">
+        <f aca="false">CodeReview!V10</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8334,14 +8418,17 @@
         <f aca="false">CodeReview_clean!R11</f>
         <v>0</v>
       </c>
-      <c r="T11" s="12" t="s">
-        <v>14</v>
+      <c r="T11" s="12" t="str">
+        <f aca="false">CodeReview!T11</f>
+        <v>bt_basics.c 2</v>
       </c>
       <c r="U11" s="12" t="n">
+        <f aca="false">CodeReview!U11</f>
         <v>3</v>
       </c>
-      <c r="V11" s="12" t="s">
-        <v>23</v>
+      <c r="V11" s="12" t="str">
+        <f aca="false">CodeReview!V11</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8405,14 +8492,17 @@
         <f aca="false">CodeReview_clean!R12</f>
         <v>0</v>
       </c>
-      <c r="T12" s="12" t="s">
-        <v>15</v>
+      <c r="T12" s="12" t="str">
+        <f aca="false">CodeReview!T12</f>
+        <v>bt_bst.c 1</v>
       </c>
       <c r="U12" s="12" t="n">
+        <f aca="false">CodeReview!U12</f>
         <v>2</v>
       </c>
-      <c r="V12" s="12" t="s">
-        <v>23</v>
+      <c r="V12" s="12" t="str">
+        <f aca="false">CodeReview!V12</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8476,14 +8566,17 @@
         <f aca="false">CodeReview_clean!R13</f>
         <v>0</v>
       </c>
-      <c r="T13" s="12" t="s">
-        <v>16</v>
+      <c r="T13" s="12" t="str">
+        <f aca="false">CodeReview!T13</f>
+        <v>bt_bst.c 2</v>
       </c>
       <c r="U13" s="12" t="n">
+        <f aca="false">CodeReview!U13</f>
         <v>3</v>
       </c>
-      <c r="V13" s="12" t="s">
-        <v>23</v>
+      <c r="V13" s="12" t="str">
+        <f aca="false">CodeReview!V13</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8548,6 +8641,8 @@
         <v>0</v>
       </c>
       <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="n">
@@ -8611,6 +8706,8 @@
         <v>0</v>
       </c>
       <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="n">
@@ -8673,9 +8770,12 @@
         <f aca="false">CodeReview_clean!R16</f>
         <v>0</v>
       </c>
-      <c r="T16" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="T16" s="12" t="str">
+        <f aca="false">CodeReview!T16</f>
+        <v>Malus</v>
+      </c>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="n">
@@ -8738,14 +8838,17 @@
         <f aca="false">CodeReview_clean!R17</f>
         <v>0</v>
       </c>
-      <c r="T17" s="12" t="s">
-        <v>25</v>
+      <c r="T17" s="12" t="str">
+        <f aca="false">CodeReview!T17</f>
+        <v>Archive sale</v>
       </c>
       <c r="U17" s="12" t="n">
+        <f aca="false">CodeReview!U17</f>
         <v>-1</v>
       </c>
-      <c r="V17" s="12" t="s">
-        <v>23</v>
+      <c r="V17" s="12" t="str">
+        <f aca="false">CodeReview!V17</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8809,14 +8912,17 @@
         <f aca="false">CodeReview_clean!R18</f>
         <v>0</v>
       </c>
-      <c r="T18" s="12" t="s">
-        <v>26</v>
+      <c r="T18" s="12" t="str">
+        <f aca="false">CodeReview!T18</f>
+        <v>Manque fonction</v>
       </c>
       <c r="U18" s="12" t="n">
+        <f aca="false">CodeReview!U18</f>
         <v>-2</v>
       </c>
-      <c r="V18" s="12" t="s">
-        <v>23</v>
+      <c r="V18" s="12" t="str">
+        <f aca="false">CodeReview!V18</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12652,7 +12758,7 @@
       <selection pane="bottomRight" activeCell="S1" activeCellId="0" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.43"/>
@@ -12777,8 +12883,13 @@
         <f aca="false">CodeReview_num!R2</f>
         <v>0</v>
       </c>
-      <c r="T2" s="12" t="s">
-        <v>18</v>
+      <c r="T2" s="12" t="str">
+        <f aca="false">CodeReview!T2</f>
+        <v>Notation</v>
+      </c>
+      <c r="U2" s="12" t="n">
+        <f aca="false">CodeReview!U2</f>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12841,14 +12952,17 @@
         <f aca="false">CodeReview_num!R3</f>
         <v>1</v>
       </c>
-      <c r="T3" s="12" t="s">
-        <v>5</v>
+      <c r="T3" s="12" t="str">
+        <f aca="false">CodeReview!T3</f>
+        <v>Rendu</v>
       </c>
       <c r="U3" s="12" t="n">
+        <f aca="false">CodeReview!U3</f>
         <v>0.5</v>
       </c>
-      <c r="V3" s="12" t="s">
-        <v>23</v>
+      <c r="V3" s="12" t="str">
+        <f aca="false">CodeReview!V3</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12912,14 +13026,17 @@
         <f aca="false">CodeReview_num!R4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="12" t="s">
-        <v>7</v>
+      <c r="T4" s="12" t="str">
+        <f aca="false">CodeReview!T4</f>
+        <v>Tarball</v>
       </c>
       <c r="U4" s="12" t="n">
+        <f aca="false">CodeReview!U4</f>
         <v>0.5</v>
       </c>
-      <c r="V4" s="12" t="s">
-        <v>23</v>
+      <c r="V4" s="12" t="str">
+        <f aca="false">CodeReview!V4</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12983,14 +13100,17 @@
         <f aca="false">CodeReview_num!R5</f>
         <v>0</v>
       </c>
-      <c r="T5" s="12" t="s">
-        <v>8</v>
+      <c r="T5" s="12" t="str">
+        <f aca="false">CodeReview!T5</f>
+        <v>Dossier</v>
       </c>
       <c r="U5" s="12" t="n">
+        <f aca="false">CodeReview!U5</f>
         <v>0.5</v>
       </c>
-      <c r="V5" s="12" t="s">
-        <v>23</v>
+      <c r="V5" s="12" t="str">
+        <f aca="false">CodeReview!V5</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13054,14 +13174,17 @@
         <f aca="false">CodeReview_num!R6</f>
         <v>0</v>
       </c>
-      <c r="T6" s="12" t="s">
-        <v>10</v>
+      <c r="T6" s="12" t="str">
+        <f aca="false">CodeReview!T6</f>
+        <v>Compilation</v>
       </c>
       <c r="U6" s="12" t="n">
+        <f aca="false">CodeReview!U6</f>
         <v>0.5</v>
       </c>
-      <c r="V6" s="12" t="s">
-        <v>23</v>
+      <c r="V6" s="12" t="str">
+        <f aca="false">CodeReview!V6</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13125,14 +13248,17 @@
         <f aca="false">CodeReview_num!R7</f>
         <v>0</v>
       </c>
-      <c r="T7" s="12" t="s">
-        <v>12</v>
+      <c r="T7" s="12" t="str">
+        <f aca="false">CodeReview!T7</f>
+        <v>Libs</v>
       </c>
       <c r="U7" s="12" t="n">
+        <f aca="false">CodeReview!U7</f>
         <v>1</v>
       </c>
-      <c r="V7" s="12" t="s">
-        <v>23</v>
+      <c r="V7" s="12" t="str">
+        <f aca="false">CodeReview!V7</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13196,14 +13322,17 @@
         <f aca="false">CodeReview_num!R8</f>
         <v>0</v>
       </c>
-      <c r="T8" s="12" t="s">
-        <v>9</v>
+      <c r="T8" s="12" t="str">
+        <f aca="false">CodeReview!T8</f>
+        <v>Makefile</v>
       </c>
       <c r="U8" s="12" t="n">
+        <f aca="false">CodeReview!U8</f>
         <v>1</v>
       </c>
-      <c r="V8" s="12" t="s">
-        <v>23</v>
+      <c r="V8" s="12" t="str">
+        <f aca="false">CodeReview!V8</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13267,14 +13396,17 @@
         <f aca="false">CodeReview_num!R9</f>
         <v>0</v>
       </c>
-      <c r="T9" s="12" t="s">
-        <v>11</v>
+      <c r="T9" s="12" t="str">
+        <f aca="false">CodeReview!T9</f>
+        <v>Check</v>
       </c>
       <c r="U9" s="12" t="n">
+        <f aca="false">CodeReview!U9</f>
         <v>6</v>
       </c>
-      <c r="V9" s="12" t="s">
-        <v>23</v>
+      <c r="V9" s="12" t="str">
+        <f aca="false">CodeReview!V9</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13338,14 +13470,17 @@
         <f aca="false">CodeReview_num!R10</f>
         <v>0</v>
       </c>
-      <c r="T10" s="12" t="s">
-        <v>13</v>
+      <c r="T10" s="12" t="str">
+        <f aca="false">CodeReview!T10</f>
+        <v>bt_basics.c 1</v>
       </c>
       <c r="U10" s="12" t="n">
+        <f aca="false">CodeReview!U10</f>
         <v>2</v>
       </c>
-      <c r="V10" s="12" t="s">
-        <v>23</v>
+      <c r="V10" s="12" t="str">
+        <f aca="false">CodeReview!V10</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13409,14 +13544,17 @@
         <f aca="false">CodeReview_num!R11</f>
         <v>0</v>
       </c>
-      <c r="T11" s="12" t="s">
-        <v>14</v>
+      <c r="T11" s="12" t="str">
+        <f aca="false">CodeReview!T11</f>
+        <v>bt_basics.c 2</v>
       </c>
       <c r="U11" s="12" t="n">
+        <f aca="false">CodeReview!U11</f>
         <v>3</v>
       </c>
-      <c r="V11" s="12" t="s">
-        <v>23</v>
+      <c r="V11" s="12" t="str">
+        <f aca="false">CodeReview!V11</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13480,14 +13618,17 @@
         <f aca="false">CodeReview_num!R12</f>
         <v>0</v>
       </c>
-      <c r="T12" s="12" t="s">
-        <v>15</v>
+      <c r="T12" s="12" t="str">
+        <f aca="false">CodeReview!T12</f>
+        <v>bt_bst.c 1</v>
       </c>
       <c r="U12" s="12" t="n">
+        <f aca="false">CodeReview!U12</f>
         <v>2</v>
       </c>
-      <c r="V12" s="12" t="s">
-        <v>23</v>
+      <c r="V12" s="12" t="str">
+        <f aca="false">CodeReview!V12</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13551,14 +13692,17 @@
         <f aca="false">CodeReview_num!R13</f>
         <v>0</v>
       </c>
-      <c r="T13" s="12" t="s">
-        <v>16</v>
+      <c r="T13" s="12" t="str">
+        <f aca="false">CodeReview!T13</f>
+        <v>bt_bst.c 2</v>
       </c>
       <c r="U13" s="12" t="n">
+        <f aca="false">CodeReview!U13</f>
         <v>3</v>
       </c>
-      <c r="V13" s="12" t="s">
-        <v>23</v>
+      <c r="V13" s="12" t="str">
+        <f aca="false">CodeReview!V13</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13623,6 +13767,8 @@
         <v>0</v>
       </c>
       <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="n">
@@ -13686,6 +13832,8 @@
         <v>0</v>
       </c>
       <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="n">
@@ -13748,9 +13896,12 @@
         <f aca="false">CodeReview_num!R16</f>
         <v>0</v>
       </c>
-      <c r="T16" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="T16" s="12" t="str">
+        <f aca="false">CodeReview!T16</f>
+        <v>Malus</v>
+      </c>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="n">
@@ -13813,14 +13964,17 @@
         <f aca="false">CodeReview_num!R17</f>
         <v>0</v>
       </c>
-      <c r="T17" s="12" t="s">
-        <v>25</v>
+      <c r="T17" s="12" t="str">
+        <f aca="false">CodeReview!T17</f>
+        <v>Archive sale</v>
       </c>
       <c r="U17" s="12" t="n">
+        <f aca="false">CodeReview!U17</f>
         <v>-1</v>
       </c>
-      <c r="V17" s="12" t="s">
-        <v>23</v>
+      <c r="V17" s="12" t="str">
+        <f aca="false">CodeReview!V17</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13884,14 +14038,17 @@
         <f aca="false">CodeReview_num!R18</f>
         <v>0</v>
       </c>
-      <c r="T18" s="12" t="s">
-        <v>26</v>
+      <c r="T18" s="12" t="str">
+        <f aca="false">CodeReview!T18</f>
+        <v>Manque fonction</v>
       </c>
       <c r="U18" s="12" t="n">
+        <f aca="false">CodeReview!U18</f>
         <v>-2</v>
       </c>
-      <c r="V18" s="12" t="s">
-        <v>23</v>
+      <c r="V18" s="12" t="str">
+        <f aca="false">CodeReview!V18</f>
+        <v>pt</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17720,10 +17877,10 @@
   <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
